--- a/e-library website/SOURCETHREAD.xlsx
+++ b/e-library website/SOURCETHREAD.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/hart2jd_ucmail_uc_edu/Documents/Research/E-LIBRARY/E-LIBRARYSITE/e-library website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1438" documentId="13_ncr:1_{C3643AF4-3069-4DCA-B7E4-311FF17C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F69867-28DD-43C4-9F99-1F06330C6AC1}"/>
+  <xr:revisionPtr revIDLastSave="1467" documentId="13_ncr:1_{C3643AF4-3069-4DCA-B7E4-311FF17C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAE2946-D589-4FE0-93EC-B2C60BC733F4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{322418E7-7E5D-448C-9F56-D1752E687A41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{322418E7-7E5D-448C-9F56-D1752E687A41}"/>
   </bookViews>
   <sheets>
     <sheet name="SOURCETHREAD" sheetId="1" r:id="rId1"/>
-    <sheet name="ARTCLIP" sheetId="2" r:id="rId2"/>
+    <sheet name="CURRENT EVENTS" sheetId="3" r:id="rId2"/>
+    <sheet name="ARTCLIP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1044">
   <si>
     <t>Title</t>
   </si>
@@ -3156,6 +3157,24 @@
   </si>
   <si>
     <t>Banned Thought</t>
+  </si>
+  <si>
+    <t>5/25/2022</t>
+  </si>
+  <si>
+    <t>11/21/2021</t>
+  </si>
+  <si>
+    <t>11/24/2019</t>
+  </si>
+  <si>
+    <t>9/15/2019</t>
+  </si>
+  <si>
+    <t>5/24/2022</t>
+  </si>
+  <si>
+    <t>2/25/2022</t>
   </si>
 </sst>
 </file>
@@ -3211,7 +3230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3227,6 +3246,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3544,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87C3968-7C9A-4DA3-8D20-B37FC4C6D77C}">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U144" sqref="U144"/>
+    <sheetView topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3744,7 +3765,7 @@
         <v>2014</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -8752,7 +8773,7 @@
         <v>44521</v>
       </c>
       <c r="H136" t="s">
-        <v>826</v>
+        <v>914</v>
       </c>
       <c r="I136" t="s">
         <v>15</v>
@@ -8790,7 +8811,7 @@
         <v>43793</v>
       </c>
       <c r="H137" t="s">
-        <v>826</v>
+        <v>914</v>
       </c>
       <c r="I137" t="s">
         <v>15</v>
@@ -8825,7 +8846,7 @@
         <v>43723</v>
       </c>
       <c r="H138" t="s">
-        <v>826</v>
+        <v>914</v>
       </c>
       <c r="I138" t="s">
         <v>15</v>
@@ -9020,7 +9041,7 @@
         <v>2008</v>
       </c>
       <c r="H144" t="s">
-        <v>826</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
         <v>886</v>
@@ -9781,6 +9802,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FC9FE7-11E0-403D-9A38-F1C288D5C0AC}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" t="s">
+        <v>826</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="K1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H2" t="s">
+        <v>826</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K2" t="s">
+        <v>835</v>
+      </c>
+      <c r="L2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>840</v>
+      </c>
+      <c r="K3" t="s">
+        <v>841</v>
+      </c>
+      <c r="L3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H4" t="s">
+        <v>826</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>846</v>
+      </c>
+      <c r="K4" t="s">
+        <v>847</v>
+      </c>
+      <c r="L4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="K5" t="s">
+        <v>828</v>
+      </c>
+      <c r="L5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C6" t="s">
+        <v>871</v>
+      </c>
+      <c r="D6" t="s">
+        <v>872</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>873</v>
+      </c>
+      <c r="K6" t="s">
+        <v>874</v>
+      </c>
+      <c r="L6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D7" t="s">
+        <v>878</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H7" t="s">
+        <v>826</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>879</v>
+      </c>
+      <c r="K7" t="s">
+        <v>880</v>
+      </c>
+      <c r="L7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{C669CFE6-FC6A-4187-84BD-682A30A2E021}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{D6D45361-6718-49B5-96A4-F577F57E8630}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDABC10-A836-44C6-B4F0-0FCA5F35CC58}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/e-library website/SOURCETHREAD.xlsx
+++ b/e-library website/SOURCETHREAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/hart2jd_ucmail_uc_edu/Documents/Research/E-LIBRARY/E-LIBRARYSITE/e-library website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1467" documentId="13_ncr:1_{C3643AF4-3069-4DCA-B7E4-311FF17C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BAE2946-D589-4FE0-93EC-B2C60BC733F4}"/>
+  <xr:revisionPtr revIDLastSave="1472" documentId="13_ncr:1_{C3643AF4-3069-4DCA-B7E4-311FF17C09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87FC303-13D3-49A1-A798-7596DA88B45B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{322418E7-7E5D-448C-9F56-D1752E687A41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{322418E7-7E5D-448C-9F56-D1752E687A41}"/>
   </bookViews>
   <sheets>
     <sheet name="SOURCETHREAD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1047">
   <si>
     <t>Title</t>
   </si>
@@ -3175,6 +3175,15 @@
   </si>
   <si>
     <t>2/25/2022</t>
+  </si>
+  <si>
+    <t>Conspiracy, MK-ULTRA, MKULTRA, Fort Detrick</t>
+  </si>
+  <si>
+    <t>Conspiracy, MK-ULTRA, MKULTRA, Louis Jolyton West, Jolly West</t>
+  </si>
+  <si>
+    <t>Korean history, imperialism, war crimes, Korea, North Korea, Germ Warfare</t>
   </si>
 </sst>
 </file>
@@ -3565,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87C3968-7C9A-4DA3-8D20-B37FC4C6D77C}">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8752,6 +8761,9 @@
       <c r="L135" t="s">
         <v>829</v>
       </c>
+      <c r="O135" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
@@ -8782,10 +8794,13 @@
         <v>834</v>
       </c>
       <c r="K136" t="s">
-        <v>835</v>
+        <v>1046</v>
       </c>
       <c r="L136" t="s">
         <v>836</v>
+      </c>
+      <c r="O136" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -8820,7 +8835,7 @@
         <v>840</v>
       </c>
       <c r="K137" t="s">
-        <v>841</v>
+        <v>1045</v>
       </c>
       <c r="L137" t="s">
         <v>895</v>
@@ -8855,7 +8870,7 @@
         <v>846</v>
       </c>
       <c r="K138" t="s">
-        <v>847</v>
+        <v>1044</v>
       </c>
       <c r="L138" t="s">
         <v>848</v>
@@ -9805,7 +9820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FC9FE7-11E0-403D-9A38-F1C288D5C0AC}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
